--- a/trading_strategy/documentation/Examples_GapUp_USDJPY.xlsx
+++ b/trading_strategy/documentation/Examples_GapUp_USDJPY.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparn\Documents\GitHub\cpp_code\trading_strategy\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparn\Desktop\Job Search\cpp code\Trading_Strategy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44F060-B6B8-4902-BA80-AB3C971CA011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E46C3D-4ED0-485A-9867-BF4E364A332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4881A7D3-8AA6-4BEE-9B52-C7C43807363B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4881A7D3-8AA6-4BEE-9B52-C7C43807363B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kill" sheetId="3" r:id="rId1"/>
+    <sheet name="TimeToLive" sheetId="3" r:id="rId1"/>
     <sheet name="TakeProfit" sheetId="4" r:id="rId2"/>
     <sheet name="StopLoss" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -163,7 +163,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$F$4</c:f>
+              <c:f>TimeToLive!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -186,7 +186,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$5:$E$98</c:f>
+              <c:f>TimeToLive!$E$5:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="94"/>
@@ -477,7 +477,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$F$5:$F$98</c:f>
+              <c:f>TimeToLive!$F$5:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -778,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$G$4</c:f>
+              <c:f>TimeToLive!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +801,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$5:$E$98</c:f>
+              <c:f>TimeToLive!$E$5:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="94"/>
@@ -1092,7 +1092,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$G$5:$G$98</c:f>
+              <c:f>TimeToLive!$G$5:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -1393,7 +1393,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$H$4</c:f>
+              <c:f>TimeToLive!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1416,7 +1416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$8:$E$23</c:f>
+              <c:f>TimeToLive!$E$8:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1473,7 +1473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$H$5:$H$35</c:f>
+              <c:f>TimeToLive!$H$5:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1585,7 +1585,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$I$4</c:f>
+              <c:f>TimeToLive!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,7 +1608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$50:$E$65</c:f>
+              <c:f>TimeToLive!$E$50:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1665,7 +1665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$I$5:$I$98</c:f>
+              <c:f>TimeToLive!$I$5:$I$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -1966,7 +1966,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$J$4</c:f>
+              <c:f>TimeToLive!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1989,7 +1989,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$50:$E$65</c:f>
+              <c:f>TimeToLive!$E$50:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2046,7 +2046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$J$30:$J$55</c:f>
+              <c:f>TimeToLive!$J$30:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2143,7 +2143,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$K$4</c:f>
+              <c:f>TimeToLive!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2166,7 +2166,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$82:$E$97</c:f>
+              <c:f>TimeToLive!$E$82:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2223,7 +2223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$K$5:$K$98</c:f>
+              <c:f>TimeToLive!$K$5:$K$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -2539,7 +2539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$M$5:$M$98</c:f>
+              <c:f>TimeToLive!$M$5:$M$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="94"/>
@@ -2830,7 +2830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$F$5:$F$98</c:f>
+              <c:f>TimeToLive!$F$5:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -3146,7 +3146,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$N$5:$N$98</c:f>
+              <c:f>TimeToLive!$N$5:$N$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="94"/>
@@ -3437,7 +3437,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$F$5:$F$98</c:f>
+              <c:f>TimeToLive!$F$5:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -3738,7 +3738,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kill!$L$4</c:f>
+              <c:f>TimeToLive!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3761,7 +3761,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kill!$E$82:$E$97</c:f>
+              <c:f>TimeToLive!$E$82:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3818,7 +3818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kill!$L$5:$L$98</c:f>
+              <c:f>TimeToLive!$L$5:$L$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="94"/>
@@ -15661,8 +15661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75C4850-5BCF-42B2-9A94-2E267CBD00E8}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24693,7 +24693,7 @@
         <v>155.37400000000002</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G135" si="10">AVERAGE(F69:F72)</f>
+        <f t="shared" ref="G72:G129" si="10">AVERAGE(F69:F72)</f>
         <v>155.37900000000002</v>
       </c>
       <c r="H72" s="1">
@@ -26147,7 +26147,7 @@
         <v>2901.299999999901</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" ref="F99:F162" si="11">AVERAGE(C99:D99)</f>
+        <f t="shared" ref="F99:F129" si="11">AVERAGE(C99:D99)</f>
         <v>155.38650000000001</v>
       </c>
       <c r="G99" s="3">
@@ -26209,7 +26209,7 @@
         <v>155.38849999999999</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" ref="H100:N136" si="12">H$3</f>
+        <f t="shared" ref="H100:N129" si="12">H$3</f>
         <v>155.22999999999999</v>
       </c>
       <c r="I100" s="1">
@@ -27813,7 +27813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C253762-01A1-4ED6-8E1B-9CEAA698504D}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
